--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode2\discod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode2\discord 2\dtmbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A3221B-2C7D-4055-9E87-46014DECA0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C81265-7B31-4130-ADFA-05C261B621BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10545" yWindow="2295" windowWidth="17055" windowHeight="11295" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Thời gian</t>
   </si>
@@ -50,19 +50,7 @@
     <t>REPORT_CHANNEL_ID</t>
   </si>
   <si>
-    <t>Báo cáo hàng ngày đã có!</t>
-  </si>
-  <si>
-    <t>ANNOUNCE_CHANNEL_ID</t>
-  </si>
-  <si>
-    <t>Các vị đạo hữu đừng quên rời mỏ nhé!</t>
-  </si>
-  <si>
     <t>Xin lỗi chư vị, lão phu đang thử thông báo!</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
@@ -441,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D40FB27-6CC5-4AE8-8F40-483B1A15815F}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -467,47 +455,20 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>0.66666666666666696</v>
+        <v>0.95138888888888884</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>0.95138888888888884</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>0.99583333333333335</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode2\discord 2\dtmbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C81265-7B31-4130-ADFA-05C261B621BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1409C633-E872-49B3-94AB-439B2BD8850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="2295" windowWidth="17055" windowHeight="11295" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
+    <workbookView xWindow="16560" yWindow="2295" windowWidth="11040" windowHeight="11295" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,6 +57,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-1000000]h:mm;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,7 +95,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -429,21 +432,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D40FB27-6CC5-4AE8-8F40-483B1A15815F}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -463,12 +466,6 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode2\discord 2\dtmbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1409C633-E872-49B3-94AB-439B2BD8850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F59B41-849C-410E-9BCD-A4CE355F80F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16560" yWindow="2295" windowWidth="11040" windowHeight="11295" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-1000000]h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-1000000]h:mm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -95,7 +95,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -435,7 +435,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -458,7 +458,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>0.95138888888888884</v>
+        <v>0.28472222222222221</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode2\discord 2\dtmbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F59B41-849C-410E-9BCD-A4CE355F80F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7514990-AD84-4971-8131-32D72DF7D8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16560" yWindow="2295" windowWidth="11040" windowHeight="11295" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
   </bookViews>
@@ -458,7 +458,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>0.28472222222222221</v>
+        <v>0.2902777777777778</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode2\discord 2\dtmbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7514990-AD84-4971-8131-32D72DF7D8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55C262D-1051-4823-AA1D-9ABDE23E38FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16560" yWindow="2295" windowWidth="11040" windowHeight="11295" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-1000000]h:mm;@"/>
+    <numFmt numFmtId="167" formatCode="[$-1000000]h:mm:ss;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -95,7 +95,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -435,7 +435,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode2\discord 2\dtmbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55C262D-1051-4823-AA1D-9ABDE23E38FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A724D8-480C-440E-8DE5-DCB513CA0E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16560" yWindow="2295" windowWidth="11040" windowHeight="11295" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Thời gian</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>Xin lỗi chư vị, lão phu đang thử thông báo!</t>
+  </si>
+  <si>
+    <t>ANNOUNCE_CHANNEL_ID</t>
+  </si>
+  <si>
+    <t>TEST_CHANNEL_ID</t>
+  </si>
+  <si>
+    <t>hihihj</t>
   </si>
 </sst>
 </file>
@@ -58,7 +67,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$-1000000]h:mm:ss;@"/>
+    <numFmt numFmtId="164" formatCode="[$-1000000]h:mm:ss;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -95,7 +104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -432,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D40FB27-6CC5-4AE8-8F40-483B1A15815F}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -467,7 +476,27 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode2\discord 2\dtmbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A724D8-480C-440E-8DE5-DCB513CA0E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9344E8E3-1CBE-41CD-BAC1-1C582E2BDBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16560" yWindow="2295" windowWidth="11040" windowHeight="11295" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -486,7 +486,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>0.3576388888888889</v>
+        <v>0.36319444444444443</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode2\discord 2\dtmbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9344E8E3-1CBE-41CD-BAC1-1C582E2BDBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDEAAC5-22AA-4E68-8C05-AB2360059900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16560" yWindow="2295" windowWidth="11040" windowHeight="11295" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
+    <workbookView xWindow="6285" yWindow="2685" windowWidth="11040" windowHeight="11295" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Thời gian</t>
   </si>
@@ -47,19 +47,32 @@
     <t>Nội dung</t>
   </si>
   <si>
-    <t>REPORT_CHANNEL_ID</t>
-  </si>
-  <si>
-    <t>Xin lỗi chư vị, lão phu đang thử thông báo!</t>
-  </si>
-  <si>
     <t>ANNOUNCE_CHANNEL_ID</t>
   </si>
   <si>
     <t>TEST_CHANNEL_ID</t>
   </si>
   <si>
-    <t>hihihj</t>
+    <t>Chào buổi sáng chư vị, bắt đầu một ngày mới thôi nào!!</t>
+  </si>
+  <si>
+    <t>📢 Mọi người đừng quên vào mỏ nhé!!</t>
+  </si>
+  <si>
+    <t>📢 Chư vị đạo hữu đừng quên rời mỏ, chúc chư vị ngủ ngon!!</t>
+  </si>
+  <si>
+    <t>📢 Đặt đá nèoooo...</t>
+  </si>
+  <si>
+    <t>🎉Việt Nam vô địch🎉🎉
+🆘🆘Độ Tiên Môn tuyển thành viên!!🔔🔔
+💥Ưu tiên: thợ mỏ từ 18h- 23h56′
+💥Yêu cầu:
+ ⭐ tuvi &gt;27k
+ ⭐ vấn đáp + tế lễ
+ ⭐ xem nội quy ghim trong phòng chat hoặc kênh discord
+🛜🎉Hoan nghênh chư vị gia nhập!!💕</t>
   </si>
 </sst>
 </file>
@@ -99,13 +112,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,57 +457,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D40FB27-6CC5-4AE8-8F40-483B1A15815F}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>0.2902777777777778</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:3" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>0.34375</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>0.36319444444444443</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0.75694444444444442</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>0.99583333333333335</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode2\discord 2\dtmbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDEAAC5-22AA-4E68-8C05-AB2360059900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0834844F-AD5E-4879-88CC-616E2A68A087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="2685" windowWidth="11040" windowHeight="11295" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Thời gian</t>
   </si>
@@ -50,9 +50,6 @@
     <t>ANNOUNCE_CHANNEL_ID</t>
   </si>
   <si>
-    <t>TEST_CHANNEL_ID</t>
-  </si>
-  <si>
     <t>Chào buổi sáng chư vị, bắt đầu một ngày mới thôi nào!!</t>
   </si>
   <si>
@@ -65,14 +62,7 @@
     <t>📢 Đặt đá nèoooo...</t>
   </si>
   <si>
-    <t>🎉Việt Nam vô địch🎉🎉
-🆘🆘Độ Tiên Môn tuyển thành viên!!🔔🔔
-💥Ưu tiên: thợ mỏ từ 18h- 23h56′
-💥Yêu cầu:
- ⭐ tuvi &gt;27k
- ⭐ vấn đáp + tế lễ
- ⭐ xem nội quy ghim trong phòng chat hoặc kênh discord
-🛜🎉Hoan nghênh chư vị gia nhập!!💕</t>
+    <t>📢 Nghỉ trưa thôi, đặt đá để giảm căng thẳng nhé!!</t>
   </si>
 </sst>
 </file>
@@ -112,16 +102,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,7 +447,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -481,26 +468,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0.3888888888888889</v>
+        <v>0.25</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>0.25</v>
+        <v>0.49930555555555556</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -511,7 +498,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -522,7 +509,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -533,7 +520,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode2\discord 2\dtmbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0834844F-AD5E-4879-88CC-616E2A68A087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8F348D-72BB-4F07-B800-A81DC8AD60CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
+    <workbookView xWindow="13845" yWindow="2490" windowWidth="11040" windowHeight="11295" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Thời gian</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>📢 Nghỉ trưa thôi, đặt đá để giảm căng thẳng nhé!!</t>
+  </si>
+  <si>
+    <t>TEST_CHANNEL_ID</t>
+  </si>
+  <si>
+    <t>hel;lo</t>
   </si>
 </sst>
 </file>
@@ -444,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D40FB27-6CC5-4AE8-8F40-483B1A15815F}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -523,6 +529,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode2\discord 2\dtmbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8F348D-72BB-4F07-B800-A81DC8AD60CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F407D938-5467-4E72-BB12-D47D22C5F5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13845" yWindow="2490" windowWidth="11040" windowHeight="11295" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
+    <workbookView xWindow="10500" yWindow="2490" windowWidth="14385" windowHeight="11295" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <t>TEST_CHANNEL_ID</t>
   </si>
   <si>
-    <t>hel;lo</t>
+    <t>tetstsst</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -531,7 +531,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>5.2083333333333336E-2</v>
+        <v>0.89444444444444449</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode2\discord 2\dtmbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F407D938-5467-4E72-BB12-D47D22C5F5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F58A1AF-1051-4208-8634-C0CAAE610471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10500" yWindow="2490" windowWidth="14385" windowHeight="11295" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
   </bookViews>
@@ -453,12 +453,12 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="37.875" style="2" customWidth="1"/>
   </cols>
@@ -531,7 +531,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>0.89444444444444449</v>
+        <v>0.92569444444444449</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode2\discord 2\dtmbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F58A1AF-1051-4208-8634-C0CAAE610471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BC9426-0E43-453A-8A53-0449F1A729B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="2490" windowWidth="14385" windowHeight="11295" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
+    <workbookView xWindow="14415" yWindow="1110" windowWidth="14385" windowHeight="11295" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,7 +453,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -531,7 +531,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>0.92569444444444449</v>
+        <v>0.93402777777777779</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode2\discord 2\dtmbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BC9426-0E43-453A-8A53-0449F1A729B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41464C06-115B-45F8-80B6-3A67B1F623F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14415" yWindow="1110" windowWidth="14385" windowHeight="11295" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
   </bookViews>
@@ -75,9 +75,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-1000000]h:mm:ss;@"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,10 +107,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,85 +455,85 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="37.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>0.25</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>0.49930555555555556</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>0.75694444444444442</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>0.99583333333333335</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>0.93402777777777779</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="2">
+        <v>0.94097222222222221</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode2\discord 2\dtmbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41464C06-115B-45F8-80B6-3A67B1F623F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D7B677-6C6C-4397-9025-8AA393B98027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14415" yWindow="1110" windowWidth="14385" windowHeight="11295" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
+    <workbookView xWindow="195" yWindow="1275" windowWidth="24705" windowHeight="11295" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Thời gian</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>tetstsst</t>
+  </si>
+  <si>
+    <t>🔍 Các kết quả cho "khô lâu đà chủ":</t>
+  </si>
+  <si>
+    <t>1. ❓ Khô Lâu Đà Chủ xuất hiện trong bộ phim hoạt hình nào dưới đây ?</t>
+  </si>
+  <si>
+    <t>➡️ Võ Thần Chúa Tể</t>
   </si>
 </sst>
 </file>
@@ -447,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D40FB27-6CC5-4AE8-8F40-483B1A15815F}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C8" sqref="C8:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -537,6 +546,27 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode2\discord 2\dtmbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D7B677-6C6C-4397-9025-8AA393B98027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2922AB85-14D8-41AE-877A-BAA7D083F66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="195" yWindow="1275" windowWidth="24705" windowHeight="11295" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Thời gian</t>
   </si>
@@ -71,13 +71,9 @@
     <t>tetstsst</t>
   </si>
   <si>
-    <t>🔍 Các kết quả cho "khô lâu đà chủ":</t>
-  </si>
-  <si>
-    <t>1. ❓ Khô Lâu Đà Chủ xuất hiện trong bộ phim hoạt hình nào dưới đây ?</t>
-  </si>
-  <si>
-    <t>➡️ Võ Thần Chúa Tể</t>
+    <t>🔍 Các kết quả cho "khô lâu đà chủ":
+1. ❓ Khô Lâu Đà Chủ xuất hiện trong bộ phim hoạt hình nào dưới đây ?
+➡️ Võ Thần Chúa Tể</t>
   </si>
 </sst>
 </file>
@@ -114,13 +110,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D40FB27-6CC5-4AE8-8F40-483B1A15815F}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -546,25 +545,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>9.7222222222222224E-2</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode2\discord 2\dtmbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2922AB85-14D8-41AE-877A-BAA7D083F66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D657595A-6430-4C82-828C-C4572F1E7ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="195" yWindow="1275" windowWidth="24705" windowHeight="11295" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Thời gian</t>
   </si>
@@ -68,12 +68,7 @@
     <t>TEST_CHANNEL_ID</t>
   </si>
   <si>
-    <t>tetstsst</t>
-  </si>
-  <si>
-    <t>🔍 Các kết quả cho "khô lâu đà chủ":
-1. ❓ Khô Lâu Đà Chủ xuất hiện trong bộ phim hoạt hình nào dưới đây ?
-➡️ Võ Thần Chúa Tể</t>
+    <t>oke</t>
   </si>
 </sst>
 </file>
@@ -458,7 +453,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -545,16 +540,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>9.7222222222222224E-2</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode2\discord 2\dtmbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D657595A-6430-4C82-828C-C4572F1E7ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5302B0-539A-4D0B-BD22-3FF7F6A26E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="1275" windowWidth="24705" windowHeight="11295" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
+    <workbookView xWindow="195" yWindow="1275" windowWidth="17475" windowHeight="11295" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Thời gian</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>oke</t>
+  </si>
+  <si>
+    <t>🎉🎊Kính chúc các quý cô một ngày 8/3 tràn đầy niềm vui, mạnh mẽ, xinh đẹp và luôn thành công rực rỡ.</t>
   </si>
 </sst>
 </file>
@@ -453,7 +456,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -540,8 +543,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" s="3"/>
+    <row r="8" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode2\discord 2\dtmbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5302B0-539A-4D0B-BD22-3FF7F6A26E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC963DF8-D1FA-4AB2-A487-7384FCAADB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="195" yWindow="1275" windowWidth="17475" windowHeight="11295" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Thời gian</t>
   </si>
@@ -50,28 +50,25 @@
     <t>ANNOUNCE_CHANNEL_ID</t>
   </si>
   <si>
-    <t>Chào buổi sáng chư vị, bắt đầu một ngày mới thôi nào!!</t>
-  </si>
-  <si>
     <t>📢 Mọi người đừng quên vào mỏ nhé!!</t>
   </si>
   <si>
-    <t>📢 Chư vị đạo hữu đừng quên rời mỏ, chúc chư vị ngủ ngon!!</t>
-  </si>
-  <si>
     <t>📢 Đặt đá nèoooo...</t>
   </si>
   <si>
-    <t>📢 Nghỉ trưa thôi, đặt đá để giảm căng thẳng nhé!!</t>
-  </si>
-  <si>
     <t>TEST_CHANNEL_ID</t>
   </si>
   <si>
-    <t>oke</t>
-  </si>
-  <si>
-    <t>🎉🎊Kính chúc các quý cô một ngày 8/3 tràn đầy niềm vui, mạnh mẽ, xinh đẹp và luôn thành công rực rỡ.</t>
+    <t xml:space="preserve">gửi thông báo </t>
+  </si>
+  <si>
+    <t>Chào buổi sáng chư vị, một ngày cuối tuần vui vẻ!!</t>
+  </si>
+  <si>
+    <t>📢 Đã đến trưa rồi sao? Cùng đặt đá để giảm căng thẳng nhé!!</t>
+  </si>
+  <si>
+    <t>📢 Chư vị đạo hữu đừng quên rời mỏ, chúc các vị đạo hũ ngủ ngon!!</t>
   </si>
 </sst>
 </file>
@@ -485,7 +482,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -496,7 +493,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -507,7 +504,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -518,7 +515,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -529,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -537,22 +534,14 @@
         <v>0.94097222222222221</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>0.97222222222222221</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode2\discord 2\dtmbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC963DF8-D1FA-4AB2-A487-7384FCAADB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C0B2DA-6AE6-4B65-8921-0D70F729D6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="195" yWindow="1275" windowWidth="17475" windowHeight="11295" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
   </bookViews>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">gửi thông báo </t>
   </si>
   <si>
-    <t>Chào buổi sáng chư vị, một ngày cuối tuần vui vẻ!!</t>
-  </si>
-  <si>
     <t>📢 Đã đến trưa rồi sao? Cùng đặt đá để giảm căng thẳng nhé!!</t>
   </si>
   <si>
     <t>📢 Chư vị đạo hữu đừng quên rời mỏ, chúc các vị đạo hũ ngủ ngon!!</t>
+  </si>
+  <si>
+    <t>Chào buổi sáng chư vị, chúc chư vị ngày mới vui vẻ!!</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -482,7 +482,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -493,7 +493,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode2\discord 2\dtmbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C0B2DA-6AE6-4B65-8921-0D70F729D6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7412C5-5B0F-45C8-BCC0-022AA950B7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="1275" windowWidth="17475" windowHeight="11295" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
+    <workbookView xWindow="8280" yWindow="2010" windowWidth="19935" windowHeight="11295" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Thời gian</t>
   </si>
@@ -53,22 +53,10 @@
     <t>📢 Mọi người đừng quên vào mỏ nhé!!</t>
   </si>
   <si>
-    <t>📢 Đặt đá nèoooo...</t>
-  </si>
-  <si>
-    <t>TEST_CHANNEL_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gửi thông báo </t>
-  </si>
-  <si>
-    <t>📢 Đã đến trưa rồi sao? Cùng đặt đá để giảm căng thẳng nhé!!</t>
-  </si>
-  <si>
     <t>📢 Chư vị đạo hữu đừng quên rời mỏ, chúc các vị đạo hũ ngủ ngon!!</t>
   </si>
   <si>
-    <t>Chào buổi sáng chư vị, chúc chư vị ngày mới vui vẻ!!</t>
+    <t>Chào buổi sáng các vị đạo hữu, chúc chư vị một ngày mới làm việc hiệu quả!!</t>
   </si>
 </sst>
 </file>
@@ -450,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D40FB27-6CC5-4AE8-8F40-483B1A15815F}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -476,72 +464,39 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>0.25</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>0.49930555555555556</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.99583333333333335</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>0.75694444444444442</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>0.99583333333333335</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>0.94097222222222221</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" s="3"/>
+      <c r="C5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode2\discord 2\dtmbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7412C5-5B0F-45C8-BCC0-022AA950B7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B994C74C-8606-471F-B782-22A8CADBCEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="2010" windowWidth="19935" windowHeight="11295" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
+    <workbookView xWindow="8865" yWindow="2445" windowWidth="14115" windowHeight="11790" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Thời gian</t>
   </si>
@@ -50,13 +50,10 @@
     <t>ANNOUNCE_CHANNEL_ID</t>
   </si>
   <si>
-    <t>📢 Mọi người đừng quên vào mỏ nhé!!</t>
-  </si>
-  <si>
-    <t>📢 Chư vị đạo hữu đừng quên rời mỏ, chúc các vị đạo hũ ngủ ngon!!</t>
-  </si>
-  <si>
-    <t>Chào buổi sáng các vị đạo hữu, chúc chư vị một ngày mới làm việc hiệu quả!!</t>
+    <t>📢 Chúc các vị đạo hũ ngủ ngon!!</t>
+  </si>
+  <si>
+    <t>📢  Chào buổi sáng các vị đạo hữu, chúc chư vị một ngày mới làm việc hiệu quả!!</t>
   </si>
 </sst>
 </file>
@@ -438,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D40FB27-6CC5-4AE8-8F40-483B1A15815F}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -470,12 +467,12 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.99583333333333335</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -485,18 +482,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>0.99583333333333335</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C5" s="3"/>
+      <c r="C4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode2\discord 2\dtmbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B994C74C-8606-471F-B782-22A8CADBCEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AE36D7-EBD3-4E18-B91F-418B578B4441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8865" yWindow="2445" windowWidth="14115" windowHeight="11790" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
+    <workbookView xWindow="10080" yWindow="2265" windowWidth="18720" windowHeight="12180" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Thời gian</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>📢  Chào buổi sáng các vị đạo hữu, chúc chư vị một ngày mới làm việc hiệu quả!!</t>
+  </si>
+  <si>
+    <t>📢 Chương trình bảo trì server bí cảnh sẽ tự động diễn ra sau 30p nữa ⌛</t>
   </si>
 </sst>
 </file>
@@ -64,7 +67,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -90,16 +93,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,14 +441,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0.22916666666666666</v>
       </c>
@@ -470,19 +470,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>0.99583333333333335</v>
+        <v>0.97847222222222219</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>0.99583333333333335</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode2\discord 2\dtmbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AE36D7-EBD3-4E18-B91F-418B578B4441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F981F001-E4D3-403C-A3E1-079775766B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10080" yWindow="2265" windowWidth="18720" windowHeight="12180" xr2:uid="{BA55AFBA-6D23-4329-8FB0-7B85E1AD66B1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Thời gian</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>📢  Chào buổi sáng các vị đạo hữu, chúc chư vị một ngày mới làm việc hiệu quả!!</t>
-  </si>
-  <si>
-    <t>📢 Chương trình bảo trì server bí cảnh sẽ tự động diễn ra sau 30p nữa ⌛</t>
   </si>
 </sst>
 </file>
@@ -435,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D40FB27-6CC5-4AE8-8F40-483B1A15815F}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,23 +469,12 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>0.97847222222222219</v>
+        <v>0.99583333333333335</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>0.99583333333333335</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
